--- a/data/trans_dic/P25A$voluntad-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P25A$voluntad-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,85; 72,25</t>
+          <t>56,81; 72,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>69,3; 81,66</t>
+          <t>69,6; 81,61</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>55,22; 72,77</t>
+          <t>55,0; 72,39</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>58,51; 85,76</t>
+          <t>60,35; 86,16</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>80,79; 95,54</t>
+          <t>81,18; 95,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>51,92; 78,96</t>
+          <t>51,44; 78,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,61; 73,93</t>
+          <t>59,94; 73,7</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>74,63; 84,19</t>
+          <t>74,51; 84,87</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>57,05; 71,72</t>
+          <t>56,53; 72,28</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 64,59</t>
+          <t>48,98; 63,48</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>59,51; 72,34</t>
+          <t>60,47; 72,56</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>53,09; 67,75</t>
+          <t>53,61; 67,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>58,86; 81,21</t>
+          <t>58,97; 80,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>59,49; 77,76</t>
+          <t>58,81; 78,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>61,5; 81,16</t>
+          <t>60,19; 80,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>53,87; 66,3</t>
+          <t>53,95; 65,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>61,97; 72,52</t>
+          <t>62,53; 72,52</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,74; 70,0</t>
+          <t>57,74; 69,71</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>48,8; 65,93</t>
+          <t>48,94; 66,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>55,53; 70,72</t>
+          <t>53,62; 71,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>39,49; 57,33</t>
+          <t>39,77; 57,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>48,79; 78,47</t>
+          <t>49,74; 78,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>69,85; 86,59</t>
+          <t>69,32; 85,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>56,76; 77,73</t>
+          <t>55,66; 77,51</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>52,15; 67,26</t>
+          <t>52,71; 67,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>63,12; 74,81</t>
+          <t>63,07; 75,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>48,56; 62,47</t>
+          <t>48,05; 62,27</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>45,2; 60,88</t>
+          <t>46,32; 60,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>55,49; 70,23</t>
+          <t>56,78; 70,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,08; 72,22</t>
+          <t>58,4; 72,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>49,51; 69,93</t>
+          <t>49,46; 70,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>66,41; 83,23</t>
+          <t>66,16; 82,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>63,2; 79,87</t>
+          <t>63,27; 80,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>49,76; 61,77</t>
+          <t>50,0; 60,97</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>62,35; 73,28</t>
+          <t>62,33; 72,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>62,45; 73,54</t>
+          <t>62,23; 73,22</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>53,85; 61,65</t>
+          <t>53,55; 61,28</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>63,91; 70,62</t>
+          <t>64,17; 70,85</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>56,33; 63,93</t>
+          <t>56,39; 64,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,06; 71,86</t>
+          <t>59,98; 72,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>73,32; 81,51</t>
+          <t>72,9; 81,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>65,07; 74,74</t>
+          <t>64,35; 74,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>56,47; 63,24</t>
+          <t>56,52; 63,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>67,98; 73,47</t>
+          <t>67,85; 73,29</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>60,28; 66,77</t>
+          <t>60,47; 66,96</t>
         </is>
       </c>
     </row>
@@ -1190,4 +1191,963 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, por propia voluntad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>83797</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>143262</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>76017</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>30615</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>64808</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>35477</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>114412</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>208070</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>111494</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>73534; 94312</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>131304; 153956</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>65010; 85570</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>24924; 35583</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>58519; 69001</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27679; 42036</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>102329; 125830</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>194290; 221280</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97233; 124339</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>105498</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>165678</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>107474</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>53677</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>68510</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>61537</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>159174</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>234187</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>169011</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>91526; 118618</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>150383; 180463</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>95027; 120056</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>45373; 62154</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>57820; 76875</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>51964; 69399</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>142314; 173673</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>216973; 251647</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>152191; 183752</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>77071</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>108633</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64433</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>25983</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>81414</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>50331</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>103055</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>190046</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>114764</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>65729; 89022</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>92418; 122805</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>53102; 76146</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>19737; 31279</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>71517; 88395</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>41498; 57791</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91700; 117038</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>173767; 206685</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>99986; 129583</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>92583</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>132001</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116398</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>55569</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>84924</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>86937</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>148152</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>216924</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>203335</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>80595; 105485</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>117176; 145893</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>103075; 127712</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>45905; 65395</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>74747; 93570</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>76623; 97529</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>133397; 162662</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>199052; 232906</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>185188; 217888</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>509</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>785</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>571</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>358950</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>549572</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>364322</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>165844</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>299655</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>234281</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>524794</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>849228</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>598604</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>334485; 382759</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>523706; 578177</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>341428; 388135</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>150391; 181985</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>281802; 316349</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>216088; 251543</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>494708; 553869</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>816026; 881413</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>569218; 630305</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>